--- a/biology/Microbiologie/Plasmide_Ti/Plasmide_Ti.xlsx
+++ b/biology/Microbiologie/Plasmide_Ti/Plasmide_Ti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plasmide Ti (en anglais : Ti plasmid pour Tumor inducing plasmid), est un plasmide circulaire d'environ 200 kilobases, et le principal déterminant de la virulence d'Agrobacterium tumefaciens, agent bactérien pathogène responsable de la galle du collet (ou crown gall disease en anglais). La galle est une tumeur végétale, qui une fois formée peut continuer à se multiplier même en l'absence de la bactérie pathogène.
 </t>
@@ -511,11 +523,13 @@
           <t>Structure du plasmide</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plasmide Ti regroupe environ 200 gènes. Il est composé de plusieurs régions qui en font un plasmide-mosaïque :
-L’ADN-T (T-DNA en anglais, pour transfered DNA), qui est transféré de la bactérie vers la plante, et intégré dans le génome nucléaire végétal. L'ADN-T porte des  gènes codant pour l'auxine et la cytokinine, des hormones végétales, ainsi que pour des opines, composés marqueurs des galles du collet. L'expression de ses gènes conduit à la formation des galles[1] ;
-La région de virulence, contenant les gènes de virulence, impliqués dans l'excision et et le transport de l’ADN-T dans la cellule infectée, ainsi que dans l'activation de la virulence[2];
+L’ADN-T (T-DNA en anglais, pour transfered DNA), qui est transféré de la bactérie vers la plante, et intégré dans le génome nucléaire végétal. L'ADN-T porte des  gènes codant pour l'auxine et la cytokinine, des hormones végétales, ainsi que pour des opines, composés marqueurs des galles du collet. L'expression de ses gènes conduit à la formation des galles ;
+La région de virulence, contenant les gènes de virulence, impliqués dans l'excision et et le transport de l’ADN-T dans la cellule infectée, ainsi que dans l'activation de la virulence;
 Les gènes de dégradation des opines ;
 Les gènes permettant le transfert conjugatif du plasmide Ti d'une bactérie virulente vers une autre bactérie ;
 Les gènes dits de ménage, permettant la réplication du plasmide dans les cellules bactériennes.
@@ -548,7 +562,9 @@
           <t>Utilisation en biotechnologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plasmide Ti est un outil de génétique moléculaire très utilisé pour créer des plantes transgéniques, par sa capacité d'intégrer de manière stable des gènes dans le génome d'une plante. Il peut être modifié par génie génétique pour contenir des gènes rapporteurs ou des gènes d'intérêt, puis utilisé pour introduire ses gènes dans le génome de plantes. Il est particulièrement efficace chez les plantes dicotylédones, ce pour quoi il est largement utilisé pour étudier la plante modèle dicotylédone Arabidopsis thaliana.
 L'ADN-T est la région du plasmide qui sera intégrée au génome de la cellule végétale. Au sein de cette région, il n'est nécessaire de garder que les séquences situés à ses extrémités. Les séquences d'ADN situées entre ses extrémités peuvent, elles, être modifiées. Il est possible d'y rajouter des gènes que l'on veut intégrer au génome de la plante.
